--- a/Assignment 1 Test Plan.xlsx
+++ b/Assignment 1 Test Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-taroem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project 1 Folder\sinkthefleet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="0" windowWidth="21672" windowHeight="8808"/>
+    <workbookView xWindow="2736" yWindow="0" windowWidth="21672" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Expected Output</t>
   </si>
@@ -105,6 +105,36 @@
   </si>
   <si>
     <t>Check that you can redo the grid if you do not like it.</t>
+  </si>
+  <si>
+    <t>setBoardSize()</t>
+  </si>
+  <si>
+    <t>reprompt for grid size</t>
+  </si>
+  <si>
+    <t>Check that setBoardSize will ignore incorrect input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter bad input - test case 'h', '3', 3 lines of junk, '#@ &amp;(' </t>
+  </si>
+  <si>
+    <t>getPlayerName()</t>
+  </si>
+  <si>
+    <t>enter long name over 100 characters with spaces</t>
+  </si>
+  <si>
+    <t>should store name and display exact input</t>
+  </si>
+  <si>
+    <t>stores full name and displays exact output</t>
+  </si>
+  <si>
+    <t>Check that you can't break anything in the getPlayerName function</t>
+  </si>
+  <si>
+    <t>"You have a ship occupying that spot"</t>
   </si>
 </sst>
 </file>
@@ -487,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57.21875" bestFit="1" customWidth="1"/>
@@ -587,10 +617,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -659,6 +689,256 @@
       <c r="I6" s="8" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4">
+        <v>42762</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4">
+        <v>42762</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment 1 Test Plan.xlsx
+++ b/Assignment 1 Test Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="0" windowWidth="21672" windowHeight="8808"/>
+    <workbookView xWindow="4104" yWindow="0" windowWidth="21672" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assignment 1 Test Plan.xlsx
+++ b/Assignment 1 Test Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="0" windowWidth="21672" windowHeight="8808"/>
+    <workbookView xWindow="6840" yWindow="0" windowWidth="21672" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Expected Output</t>
   </si>
@@ -38,18 +38,12 @@
     <t>On grid 'S' place minesweeper, Vertical at H1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Invalid Location"</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Check same test on Large grid</t>
   </si>
   <si>
-    <t>validLocation()</t>
-  </si>
-  <si>
     <t>Place ship on top of already designated location</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Test Description</t>
   </si>
   <si>
-    <t>setShips()</t>
-  </si>
-  <si>
     <t>On ship placement prompt(correct spot, y or n) select n</t>
   </si>
   <si>
@@ -135,6 +126,102 @@
   </si>
   <si>
     <t>"You have a ship occupying that spot"</t>
+  </si>
+  <si>
+    <t>getvalidCoordinate()</t>
+  </si>
+  <si>
+    <t>placeShips()</t>
+  </si>
+  <si>
+    <t>loadFile()</t>
+  </si>
+  <si>
+    <t>input should be ignored and reprompt</t>
+  </si>
+  <si>
+    <t>input is ignored and game reprompts for name</t>
+  </si>
+  <si>
+    <t>check that entering incorrect file names does not break program</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Please enter a valid coordinate"</t>
+  </si>
+  <si>
+    <t>saveMenu()</t>
+  </si>
+  <si>
+    <t>file should be saved with name as entered</t>
+  </si>
+  <si>
+    <t>file is saved with name as entered</t>
+  </si>
+  <si>
+    <t>check that file is saved with name you enter</t>
+  </si>
+  <si>
+    <t>launchMissile()</t>
+  </si>
+  <si>
+    <t>Test Area</t>
+  </si>
+  <si>
+    <t>Game Setup</t>
+  </si>
+  <si>
+    <t>Game Play</t>
+  </si>
+  <si>
+    <t>allocMemory()</t>
+  </si>
+  <si>
+    <t>check that pointer is changed from null location to new location</t>
+  </si>
+  <si>
+    <t>ptr address should change after new</t>
+  </si>
+  <si>
+    <t>null ptr:0x0000, new ptr: 0x000001d9c97cfc90</t>
+  </si>
+  <si>
+    <t>check that new changes ptr address.</t>
+  </si>
+  <si>
+    <t>guess spot already occupied with hit</t>
+  </si>
+  <si>
+    <t>guess spot already occupied with miss</t>
+  </si>
+  <si>
+    <t>"You have already guessed that position."</t>
+  </si>
+  <si>
+    <t>Check that you can't guess a spot already occupied</t>
+  </si>
+  <si>
+    <t>sink a ship</t>
+  </si>
+  <si>
+    <t>"defender hit and sunk attacker's shipname"</t>
+  </si>
+  <si>
+    <t>check that message prompts when ship is sunk</t>
+  </si>
+  <si>
+    <t>isAlive()</t>
+  </si>
+  <si>
+    <t>sink all ships</t>
+  </si>
+  <si>
+    <t>congratulateWinner should be called</t>
+  </si>
+  <si>
+    <t>congratulate Winner is called</t>
+  </si>
+  <si>
+    <t>check that player healpoints are depleted for game over</t>
   </si>
 </sst>
 </file>
@@ -166,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -189,11 +276,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -203,6 +340,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,428 +660,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4">
+        <v>42758</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4">
+        <v>42738</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4">
+        <v>42758</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4">
+        <v>42758</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4">
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4">
         <v>42758</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4">
+        <v>42762</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4">
+        <v>42762</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4">
-        <v>42758</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4">
-        <v>42758</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4">
-        <v>42758</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4">
-        <v>42762</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4">
-        <v>42762</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="H10" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="H11" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="H12" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="H13" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="H14" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H15" s="4">
+        <v>42765</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
